--- a/extracted_excel/Kilifi_gendered_enterprise.xlsx
+++ b/extracted_excel/Kilifi_gendered_enterprise.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
-  <si>
-    <t>County</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>Theme</t>
   </si>
@@ -28,9 +25,6 @@
     <t>Response</t>
   </si>
   <si>
-    <t>Kilifi</t>
-  </si>
-  <si>
     <t>Enterprise Selection and Community Involvement</t>
   </si>
   <si>
@@ -148,13 +142,13 @@
     <t>meeting, barazas and discussions , the value chains already had strategies in place. community entry barazas (mobilization), common interest group formation, farmer producer organization (cooperatives and saccos).</t>
   </si>
   <si>
-    <t>Men prefer leadership sectors in enterprises as well as enterprises with high investments and returns. enterprises that are also labour intensive. Youth lack investment capital and land. access to land but no ownership and control. Youth prefer enterprises with quick returns eg. data collection activities. they have access to gadgets. Women mostly involved herding and milking activities in livestock.</t>
-  </si>
-  <si>
-    <t>Activity men women youth elderly remarks Input acquisition Yes Yes Yes Men -head of households in decision making Financial access Women – small inputs, ventured into farming Decision on LAND USE Yes Men own and control the land Land preparation Yes Yes Yes Yes Provision of cheap and readily available labour services. Men and youth male if its mechanized Women take up to earn money for household needs Youth involved for quick money Elderly are not able to pay others to do it so they directly do it themselves Weeding Yes Yes Yes Provision of cheap and readily available labour services. Men - mechanized weeding Women take up to earn money for household needs Youth involved in mechanization,herbicides application and also for quick money Harvesting Yes Yes youth and women depends with the enterprise. Marketing Yes Yes Men want to control and manage the income, middlemen and broker activities depending on the value chains. small enterprises will fully be women Control of income Yes Men want to control and the manager the income</t>
-  </si>
-  <si>
-    <t>Non-traditional- Dairy, Broiler, Tomatoes,</t>
+    <t>community groups tend to be female dominated from formulation, mobilization to actualization. Men prefer leadership sectors in enterprises as well as enterprises with high investments and returns. enterprises that are also labour intensive. Youth lack investment capital and land. access to land but no ownership and control. Youth prefer enterprises with quick returns eg. data collection activities. they have access to gadgets. Women mostly involved herding and milking activities in livestock.</t>
+  </si>
+  <si>
+    <t>Activity men women youth elderly remarks Input acquisition Yes Yes Yes Men -head of households in decision making Financial access Women – small inputs, ventured into farming  Decision on LAND USE Yes Men own and control the land Land preparation Yes Yes Yes Yes Provision of cheap and readily available labour services. Men and youth male if its mechanized Women take up to earn money for household needs Youth involved for quick money Elderly are not able to pay others to do it so they directly do it themselves Weeding Yes Yes Yes Provision of cheap and readily available labour services. Men - mechanized weeding Women take up to earn money for household needs Youth involved in mechanization,herbicides application and also for quick money Harvesting Yes Yes youth and women depends with the enterprise. Marketing Yes Yes Men want to control and manage the income, middlemen and broker activities depending on the value chains. small enterprises will fully be women Control of income Yes Men want to control and the manager the income</t>
+  </si>
+  <si>
+    <t>Tradition- ABEC, Vegetables, poultry (indigenous chicken) Non-traditional- Dairy, Broiler, Tomatoes,</t>
   </si>
   <si>
     <t>small portion of lands, noncontrol of land, cultural norms- man is the breadwinner of the family so the woman, as a housewife may start farming activities for livelihood sustainability and to keep busy, those with less value are given to women</t>
@@ -163,9 +157,6 @@
     <t>Cultural norms -determines gender roles in agriculture activities as well as the leadership sector of it Inheritance -inhibits land access, control and ownership Societal norms - Men are mostly the final decision makers in the society limiting women’s leadership and decision making in enterprise development</t>
   </si>
   <si>
-    <t>No response provided</t>
-  </si>
-  <si>
     <t>Subsistence farming is women dominated since there is no income from it. For household sustainability. Gender roles for women- caring for the family. Generally, farm labour is dominated by women. They offer cheap and readily available labour.</t>
   </si>
   <si>
@@ -178,7 +169,7 @@
     <t>Challenges: There is low literacy, low affordability of the gadgets, the cost of internet is high, low capacity to utilize the information from these platforms. Little know how of what to ask or do, cultural challenge in which mostly women believe they are supposed to be lead or directed than read and discover for themselves. Low passion for agriculture for agriculture. They can only participate in nods such as marketing or transportation Solution: Use of the vernacular radio stations, get them from the groups</t>
   </si>
   <si>
-    <t>land, Finance-the overall financial landscape for access including the informal such as community Savings and loans associations) Saccos banks, insurance services Access to training and knowledge/extension Access to information as market, weather Access to technology eg ICT, digital gadgets, internet, digital literacy Resource Men Women Youth Elderly Land Ownership dominated by men. Women mostly have access more than youth Utilization by women than youth come in second after women in utilization and access There is issue of clan, which is attributed to elderly men Finance They are the leading in access and utilization. Mostly men have control even to all the finance that women have They are low in access and low in utilization. In community savings such MEDIUM LEVEL SACCOS AND BANKS AND VSLA give small loans. Women have 100% access to this They follow elderly since they convince their parents on how to get the loans They lead in access of bank or private institutions loans because of the collateral. What limits the youth is the utilization since they are more in subsistence such as buying clothes, food, digital platforms Access to training and knowledge/extension Trainings that are far away is access equally by men and women. For training women have access to about 80percent. There are early marriages in this county and hence some women double up both as youth (youth mothers) and women groups Elderly women more accessible to extension services especially because they also belong to women groups Access to information as market, weather Do not access as much as the youth. As long as they can access the digital platforms Do not access as much as the youth. As long as they can access the digital platforms Youth are advantaged because they have access to digital platforms Low in the market information because of the digital technology. Access to technology eg ICT, digital gadgets, internet, digital literacy Not as much as the youth. Internet in the county is limited and mostly available in the urban areas as opposed to the rural Not as much as the youth. Internet in the county is limited and mostly available in the urban areas as opposed to the rural The youth lead Not as much as the youth. Internet in the county is limited and mostly available in the urban areas as opposed to the rural *There is KNBS social economic variable data which has this kind of info</t>
+    <t>land,  Finance-the overall financial landscape for access including the informal such as community Savings and loans associations) Saccos banks, insurance services  Access to training and knowledge/extension  Access to information as market, weather  Access to technology eg ICT, digital gadgets, internet, digital literacy Resource Men Women Youth Elderly Land Ownership dominated by men. Women mostly have access more than youth Utilization by women than youth come in second after women in utilization and access There is issue of clan, which is attributed to elderly men Finance They are the leading in access and utilization. Mostly men have control even to all the finance that women have They are low in access and low in utilization. In community savings such MEDIUM LEVEL SACCOS AND BANKS AND VSLA give small loans. Women have 100% access to this They follow elderly since they convince their parents on how to get the loans They lead in access of bank or private institutions loans because of the collateral. What limits the youth is the utilization since they are more in subsistence such as buying clothes, food, digital platforms Access to training and knowledge/extension Trainings that are far away is access equally by men and women. For training women have access to about 80percent. There are early marriages in this county and hence some women double up both as youth (youth mothers) and women groups Elderly women more accessible to extension services especially because they also belong to women groups Access to information as market, weather Do not access as much as the youth. As long as they can access the digital platforms Do not access as much as the youth. As long as they can access the digital platforms Youth are advantaged because they have access to digital platforms Low in the market information because of the digital technology. Access to technology eg ICT, digital gadgets, internet, digital literacy Not as much as the youth. Internet in the county is limited and mostly available in the urban areas as opposed to the rural Not as much as the youth. Internet in the county is limited and mostly available in the urban areas as opposed to the rural The youth lead Not as much as the youth. Internet in the county is limited and mostly available in the urban areas as opposed to the rural  *There is KNBS social economic variable data which has this kind of info</t>
   </si>
   <si>
     <t>There is a high market for the beef cattle/meat goats as export markets are available. There is also a high market and demand for the perennial and cash crops such as cashewnuts(production is low) and coconuts. Population growth and urbanization has dictated that there are more consumers than the producers.Selling of animals is not as much. Competing interests between what to give to poultry and what to use for human food</t>
@@ -202,7 +193,7 @@
     <t>Yes. For commercial enterprises, there is need for availability of market, culture, acceptability, favorable climatic conditions.</t>
   </si>
   <si>
-    <t>Market, 2. value addition. 3. volume or production and productivity level. 4. well organized value chain (consisting actors and facilitators)</t>
+    <t>Market, 2. value addition. 3. volume or production and productivity level. 4. well organized value chain (consisting actors and facilitators) 8.</t>
   </si>
   <si>
     <t>In Kilifi there is no data to track these, but majority of the enterprises are women led</t>
@@ -581,13 +572,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,414 +588,321 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
